--- a/mensajes_entrada.xlsx
+++ b/mensajes_entrada.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b21cb4369e719c3/Documentos/Cathy/Magíster/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A80E467C-B667-40C9-8701-265CC69ECF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="138" documentId="8_{A80E467C-B667-40C9-8701-265CC69ECF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B9B06F1-BF2E-4645-8726-ECC99C61E807}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$B$239</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="239">
   <si>
     <t>texto</t>
   </si>
@@ -544,11 +547,256 @@
   <si>
     <t>buenas noches</t>
   </si>
+  <si>
+    <t xml:space="preserve">HOLA </t>
+  </si>
+  <si>
+    <t>Cómo estás</t>
+  </si>
+  <si>
+    <t>cómo va tu día</t>
+  </si>
+  <si>
+    <t>estás bien?</t>
+  </si>
+  <si>
+    <t>espero que estés bien</t>
+  </si>
+  <si>
+    <t>que tenga una buena tarde</t>
+  </si>
+  <si>
+    <t>adiós</t>
+  </si>
+  <si>
+    <t>bonjorno</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>bono dia</t>
+  </si>
+  <si>
+    <t>estás?</t>
+  </si>
+  <si>
+    <t>alguien ahí?</t>
+  </si>
+  <si>
+    <t>hola necesito ayuda</t>
+  </si>
+  <si>
+    <t>qué tal puede ayudarme</t>
+  </si>
+  <si>
+    <t>hola, estoy confundido</t>
+  </si>
+  <si>
+    <t>hola tengo un problema</t>
+  </si>
+  <si>
+    <t>tengo un problema</t>
+  </si>
+  <si>
+    <t>como resuelvo esto</t>
+  </si>
+  <si>
+    <t>ayuda por favor</t>
+  </si>
+  <si>
+    <t>hola me ayuda</t>
+  </si>
+  <si>
+    <t>puede ayudarme</t>
+  </si>
+  <si>
+    <t>hasta nunca</t>
+  </si>
+  <si>
+    <t>hasta siempre</t>
+  </si>
+  <si>
+    <t>hasta mañana</t>
+  </si>
+  <si>
+    <t>hasta pasado mañana</t>
+  </si>
+  <si>
+    <t>hasta que me llegue correo</t>
+  </si>
+  <si>
+    <t>no quiero más</t>
+  </si>
+  <si>
+    <t>chao pescado</t>
+  </si>
+  <si>
+    <t>adiós bicho</t>
+  </si>
+  <si>
+    <t>bye</t>
+  </si>
+  <si>
+    <t>cambio y fuera</t>
+  </si>
+  <si>
+    <t>que tenga un buen descanso</t>
+  </si>
+  <si>
+    <t>cuídate</t>
+  </si>
+  <si>
+    <t>que descanses</t>
+  </si>
+  <si>
+    <t>bye bye</t>
+  </si>
+  <si>
+    <t>chau</t>
+  </si>
+  <si>
+    <t>lo veré adiós</t>
+  </si>
+  <si>
+    <t>voy a revisar chao</t>
+  </si>
+  <si>
+    <t>que mal.. Chao</t>
+  </si>
+  <si>
+    <t>no sé, bueno gracias</t>
+  </si>
+  <si>
+    <t>gracias</t>
+  </si>
+  <si>
+    <t>atentamente</t>
+  </si>
+  <si>
+    <t>cordialmente</t>
+  </si>
+  <si>
+    <t>agradecido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">me despido
+</t>
+  </si>
+  <si>
+    <t>Empresa familiar</t>
+  </si>
+  <si>
+    <t>Catherine Figueroa</t>
+  </si>
+  <si>
+    <t>Roberto Guerra</t>
+  </si>
+  <si>
+    <t>Raul Martínez</t>
+  </si>
+  <si>
+    <t>Juan Soto</t>
+  </si>
+  <si>
+    <t>Consuelo Martínez</t>
+  </si>
+  <si>
+    <t>Laura Venegas</t>
+  </si>
+  <si>
+    <t>Olaya Figueroa</t>
+  </si>
+  <si>
+    <t>Silvia Carriel</t>
+  </si>
+  <si>
+    <t>Jaime Ferrada</t>
+  </si>
+  <si>
+    <t>Francisco Javier Errázuriz</t>
+  </si>
+  <si>
+    <t>Empresas Copihue</t>
+  </si>
+  <si>
+    <t>Restaurante Maratón</t>
+  </si>
+  <si>
+    <t>Supermercado Campodonico</t>
+  </si>
+  <si>
+    <t>Alejandra Vasquez</t>
+  </si>
+  <si>
+    <t>Fernando Cisternas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">María Mercedes Sosa
+</t>
+  </si>
+  <si>
+    <t>Walter Kliche</t>
+  </si>
+  <si>
+    <t>Harry Style</t>
+  </si>
+  <si>
+    <t>Lucas Cárcamo</t>
+  </si>
+  <si>
+    <t>Betania Madariaga</t>
+  </si>
+  <si>
+    <t>Lemarcus Win</t>
+  </si>
+  <si>
+    <t>Osvaldo San Martín</t>
+  </si>
+  <si>
+    <t>Spa Winner</t>
+  </si>
+  <si>
+    <t>Comercial San Carlos</t>
+  </si>
+  <si>
+    <t>Buses Concepción</t>
+  </si>
+  <si>
+    <t>TurBus</t>
+  </si>
+  <si>
+    <t>Pullman Bus</t>
+  </si>
+  <si>
+    <t>Contadores Asociados</t>
+  </si>
+  <si>
+    <t>alguien que pueda ayudar</t>
+  </si>
+  <si>
+    <t>aló</t>
+  </si>
+  <si>
+    <t>toc toc</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>help please</t>
+  </si>
+  <si>
+    <t>help pliss</t>
+  </si>
+  <si>
+    <t>hello sii</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -596,7 +844,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -607,6 +855,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -921,11 +1172,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B157"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1179,7 +1430,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
@@ -2185,7 +2436,664 @@
         <v>153</v>
       </c>
     </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B162" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B163" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B164" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B165" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B166" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B167" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B168" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B169" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B170" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B171" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B172" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B173" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B174" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B175" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B176" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B177" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B178" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B179" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B180" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B181" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B182" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B183" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B184" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B185" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B186" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B187" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B188" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B189" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B190" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B191" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B192" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B193" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B194" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B195" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B196" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B197" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B198" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B199" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B200" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B201" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A202" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B202" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B203" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B204" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B205" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B206" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B207" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B208" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B209" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B210" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B211" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B212" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B213" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B214" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B215" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B216" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B217" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B218" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A219" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B219" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B220" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B221" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B222" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B223" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B224" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B225" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B226" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B227" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B228" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B229" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B230" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B231" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B232" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B233" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B234" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B235" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B236" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B237" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B238" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B239" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:B239" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/mensajes_entrada.xlsx
+++ b/mensajes_entrada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b21cb4369e719c3/Documentos/Cathy/Magíster/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="296" documentId="8_{A80E467C-B667-40C9-8701-265CC69ECF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6A57AE7-618B-4C29-8EAB-5D326186EE6E}"/>
+  <xr:revisionPtr revIDLastSave="302" documentId="8_{A80E467C-B667-40C9-8701-265CC69ECF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AB87AC5-806B-4FA3-B19D-33842306AF88}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$B$141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$B$142</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="144">
   <si>
     <t>saludo</t>
   </si>
@@ -391,15 +391,6 @@
     <t>¿Cómo te llamas?</t>
   </si>
   <si>
-    <t>Cuál es tu nombre</t>
-  </si>
-  <si>
-    <t>Qué nombre te pusieron</t>
-  </si>
-  <si>
-    <t>Cómo te llamo?</t>
-  </si>
-  <si>
     <t>¿Dónde cancelo el cupon de pago?</t>
   </si>
   <si>
@@ -476,6 +467,18 @@
   <si>
     <t>Cuando ingreso a pagar el F.29, éste no me deja ingresar a la página del Banco, que puedo hacer
 no puedo pasar a la parte del banco para pagar el f 29</t>
+  </si>
+  <si>
+    <t>¿Con quién hablo?</t>
+  </si>
+  <si>
+    <t>¿Cómo te llamo?</t>
+  </si>
+  <si>
+    <t>¿Qué nombre te pusieron?</t>
+  </si>
+  <si>
+    <t>¿Cuál es tu nombre?</t>
   </si>
 </sst>
 </file>
@@ -865,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B141"/>
+  <dimension ref="A1:B142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -879,10 +882,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1023,7 +1026,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>2</v>
@@ -1031,31 +1034,31 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>118</v>
+      <c r="A21" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>8</v>
+      <c r="A22" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>0</v>
@@ -1063,7 +1066,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>0</v>
@@ -1071,15 +1074,15 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>94</v>
+      <c r="A26" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>0</v>
@@ -1087,7 +1090,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>0</v>
@@ -1095,7 +1098,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>0</v>
@@ -1103,7 +1106,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>0</v>
@@ -1111,7 +1114,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>0</v>
@@ -1119,7 +1122,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>0</v>
@@ -1127,7 +1130,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>0</v>
@@ -1135,7 +1138,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>0</v>
@@ -1143,7 +1146,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>0</v>
@@ -1151,7 +1154,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>0</v>
@@ -1159,23 +1162,23 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
-        <v>9</v>
+      <c r="A37" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>90</v>
@@ -1183,7 +1186,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>90</v>
@@ -1191,7 +1194,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>90</v>
@@ -1199,7 +1202,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>90</v>
@@ -1207,7 +1210,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>90</v>
@@ -1215,15 +1218,15 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>90</v>
@@ -1231,47 +1234,47 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
+      <c r="B46" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
+      <c r="B47" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
+      <c r="B48" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
+      <c r="B49" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>90</v>
@@ -1279,23 +1282,23 @@
     </row>
     <row r="51" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
+      <c r="B52" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>90</v>
@@ -1303,7 +1306,7 @@
     </row>
     <row r="54" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>90</v>
@@ -1311,7 +1314,7 @@
     </row>
     <row r="55" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>90</v>
@@ -1319,31 +1322,31 @@
     </row>
     <row r="56" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
+      <c r="B57" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
+      <c r="B58" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>90</v>
@@ -1351,15 +1354,15 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>90</v>
@@ -1367,23 +1370,23 @@
     </row>
     <row r="62" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B62" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="6" t="s">
+      <c r="B63" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>90</v>
@@ -1391,7 +1394,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>90</v>
@@ -1399,7 +1402,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>90</v>
@@ -1407,7 +1410,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>90</v>
@@ -1415,15 +1418,15 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>90</v>
@@ -1431,15 +1434,15 @@
     </row>
     <row r="70" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>90</v>
@@ -1447,7 +1450,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>90</v>
@@ -1455,7 +1458,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>90</v>
@@ -1463,7 +1466,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>90</v>
@@ -1471,7 +1474,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>90</v>
@@ -1479,23 +1482,23 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B76" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="6" t="s">
+      <c r="B77" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>90</v>
@@ -1503,7 +1506,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>90</v>
@@ -1511,7 +1514,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>90</v>
@@ -1519,7 +1522,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>90</v>
@@ -1527,15 +1530,15 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A83" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>90</v>
@@ -1543,15 +1546,15 @@
     </row>
     <row r="84" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A85" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>90</v>
@@ -1559,7 +1562,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>90</v>
@@ -1567,15 +1570,15 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>90</v>
@@ -1583,31 +1586,31 @@
     </row>
     <row r="89" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B89" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="6" t="s">
-        <v>119</v>
-      </c>
       <c r="B90" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>90</v>
@@ -1615,7 +1618,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>90</v>
@@ -1623,23 +1626,23 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A95" s="8" t="s">
-        <v>124</v>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="6" t="s">
-        <v>140</v>
+    <row r="96" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A96" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>90</v>
@@ -1647,39 +1650,39 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A99" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B98" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="6" t="s">
-        <v>126</v>
-      </c>
       <c r="B99" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>90</v>
@@ -1687,39 +1690,39 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A104" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A106" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A105" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A106" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>90</v>
@@ -1727,7 +1730,7 @@
     </row>
     <row r="107" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>90</v>
@@ -1735,15 +1738,15 @@
     </row>
     <row r="108" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A109" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A109" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>90</v>
@@ -1751,63 +1754,63 @@
     </row>
     <row r="110" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A111" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B110" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="6" t="s">
+      <c r="B111" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B111" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A112" s="6" t="s">
+      <c r="B112" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A113" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B112" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="6" t="s">
+      <c r="B113" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B113" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A114" s="6" t="s">
+      <c r="B114" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A115" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B114" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="6" t="s">
+      <c r="B115" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B115" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A116" s="6" t="s">
+      <c r="B116" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A117" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>90</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>90</v>
@@ -1823,7 +1826,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>90</v>
@@ -1831,7 +1834,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="B120" s="7" t="s">
         <v>90</v>
@@ -1839,7 +1842,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>90</v>
@@ -1847,7 +1850,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>90</v>
@@ -1855,7 +1858,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>90</v>
@@ -1863,15 +1866,15 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A125" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>90</v>
@@ -1879,7 +1882,7 @@
     </row>
     <row r="126" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>90</v>
@@ -1887,31 +1890,31 @@
     </row>
     <row r="127" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A128" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B127" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="6" t="s">
+      <c r="B128" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B128" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A129" s="6" t="s">
+      <c r="B129" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A130" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="6" t="s">
-        <v>84</v>
       </c>
       <c r="B130" s="7" t="s">
         <v>90</v>
@@ -1919,23 +1922,23 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B131" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A132" s="6" t="s">
-        <v>142</v>
-      </c>
       <c r="B132" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="B133" s="7" t="s">
         <v>90</v>
@@ -1943,47 +1946,47 @@
     </row>
     <row r="134" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A135" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B134" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="6" t="s">
+      <c r="B135" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B135" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A136" s="6" t="s">
-        <v>133</v>
-      </c>
       <c r="B136" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B137" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A138" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="B138" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="7" t="s">
-        <v>135</v>
+    <row r="139" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A139" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="B139" s="7" t="s">
         <v>90</v>
@@ -1991,7 +1994,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B140" s="7" t="s">
         <v>90</v>
@@ -1999,16 +2002,24 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B141" s="7" t="s">
         <v>90</v>
       </c>
     </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B141" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B36">
-    <sortCondition ref="B2:B36"/>
+  <autoFilter ref="A1:B142" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B37">
+    <sortCondition ref="B2:B37"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/mensajes_entrada.xlsx
+++ b/mensajes_entrada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b21cb4369e719c3/Documentos/Cathy/Magíster/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="302" documentId="8_{A80E467C-B667-40C9-8701-265CC69ECF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AB87AC5-806B-4FA3-B19D-33842306AF88}"/>
+  <xr:revisionPtr revIDLastSave="394" documentId="8_{A80E467C-B667-40C9-8701-265CC69ECF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3776C98-A27A-4BE6-9A08-A28F9D5B28BA}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,9 +68,6 @@
     <t>tienes el calendario tributario</t>
   </si>
   <si>
-    <t>como los contacto?</t>
-  </si>
-  <si>
     <t>quiero hacer una denuncia</t>
   </si>
   <si>
@@ -83,121 +80,24 @@
     <t>como puedo hacer un reclamo</t>
   </si>
   <si>
-    <t>tienen redes sociales?</t>
-  </si>
-  <si>
-    <t>que es sii movil?</t>
-  </si>
-  <si>
     <t>que es el sii</t>
   </si>
   <si>
-    <t>¿el arriendo de una casa debe pagar impuestos?</t>
-  </si>
-  <si>
-    <t>¿Se debe pagar IVA por la venta de un activo fijo y qué documento debiera emitir?</t>
-  </si>
-  <si>
-    <t>¿cómo puedo ver el estado de mi declaración de IVA?</t>
-  </si>
-  <si>
-    <t>¿Cómo se actualiza el remanente del Crédito Fiscal del mes anterior si el actual Formulario 29 de Declaración Mensual y Pago Simultáneo no considera valores en Unidades Tributarias Mensuales (UTM)?</t>
-  </si>
-  <si>
-    <t>¿Cómo se puede obtener por Internet un certificado o una copia de la declaración de un Formulario 29 de Declaración Mensual y Pago Simultáneo?</t>
-  </si>
-  <si>
-    <t>¿Cuáles son los medios y lugares que existen para presentar el Formulario 29 de Declaración Mensual y Pago Simultáneo?</t>
-  </si>
-  <si>
-    <t>¿Las declaraciones del Formulario 29 de Declaración Mensual y Pago Simultáneo sin movimiento o sin pago mantienen esta misma calidad si son presentadas fuera de plazo?</t>
-  </si>
-  <si>
-    <t>¿Cuáles son los plazos para presentar el Formulario 29 de Declaración Mensual y Pago Simultáneo?</t>
-  </si>
-  <si>
-    <t>¿Hay que declarar, obligatoriamente, el Formulario 29 de Declaración Mensual y Pago Simultáneo aunque no se tenga movimiento?</t>
-  </si>
-  <si>
-    <t>¿Es posible retomar el ingreso de información en un Formulario 29 de Declaración Mensual y Pago Simultáneo?</t>
-  </si>
-  <si>
-    <t>¿Cuáles son los elementos que determinan que una venta esté afecta al Impuesto al Valor Agregado (IVA)?</t>
-  </si>
-  <si>
-    <t>¿cómo puedo pagar un IVA por internet?</t>
-  </si>
-  <si>
     <t>Al ingresar a consultar el estado de mi declaración F29, me aparece un mensaje que indica que no existen declaraciones vigentes</t>
   </si>
   <si>
-    <t>Al pagar el IVA se duplicó el cargo, ¿cómo se devuelve ese dinero?</t>
-  </si>
-  <si>
-    <t>¿puedo pagar el iva en cuotas?</t>
-  </si>
-  <si>
-    <t>Si cancelé un IVA por un monto mayor al que correspondía ¿cómo puedo regularizarlo?</t>
-  </si>
-  <si>
     <t>Cancelé el F29 y ya se descontó la plata de mi cuenta, pero la declaración aún está proceso|ya pague el iva pero la declaracion sigue en proceso</t>
   </si>
   <si>
-    <t>¿Un servicio prestado en Chile a un cliente extranjero, está afecto al pago del Impuesto al Valor Agregado (IVA)?</t>
-  </si>
-  <si>
-    <t>¿Cuáles son los servicios gravados con Impuesto al Valor Agregado (IVA)?</t>
-  </si>
-  <si>
     <t>como cambio mis datos</t>
   </si>
   <si>
-    <t xml:space="preserve">como entro a mi cuenta? </t>
-  </si>
-  <si>
-    <t>como solicito clave?</t>
-  </si>
-  <si>
     <t>no recuerdo mi clave</t>
   </si>
   <si>
-    <t>¿Qué son las declaraciones del Formulario 29 de Declaración Mensual y Pago Simultáneo sin pago?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Me aparece pago rechazado y me descontaron la plata del banco .
-</t>
-  </si>
-  <si>
-    <t>Debo informar mis facturas reclamadas o rechazadas en el F29?</t>
-  </si>
-  <si>
-    <t>Puedo solicitar en la Unidad del Servicio condonación de multas e intereses?</t>
-  </si>
-  <si>
-    <t>Cuales son los requisitos para postergar el pago de IVA?</t>
-  </si>
-  <si>
     <t>hasta cuando hay plazo para rectificar</t>
   </si>
   <si>
-    <t>¿Cómo declarar sin movimiento?</t>
-  </si>
-  <si>
-    <t>puedo postergar los ppm?</t>
-  </si>
-  <si>
-    <t>¿Hasta qué hora del día del vencimiento se puede declarar por Internet el Formulario 29 sin movimiento?</t>
-  </si>
-  <si>
-    <t>postergue el iva, cuando debo pagar?</t>
-  </si>
-  <si>
-    <t>necesito cambiar la propuesta de iva del servicio como lo ´puedo modificar?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">que significan los intentos de declaracion? </t>
-  </si>
-  <si>
     <t>donde pago la postergación del IVA</t>
   </si>
   <si>
@@ -207,53 +107,12 @@
     <t xml:space="preserve">cuando ingreso a la pagina aparece un mensaje emergente que tengo periodos de f29 sin declarar pero están todos los periodos vigentes </t>
   </si>
   <si>
-    <t>Si el vencimiento del formulario 29 es día sábado, domingo o festivo, el vencimiento se aplaza?</t>
-  </si>
-  <si>
     <t>que es ppm</t>
   </si>
   <si>
-    <t>Que es el cupon de pago?</t>
-  </si>
-  <si>
-    <t>¿Qué es la Consulta Integral F29?</t>
-  </si>
-  <si>
-    <t>Si siempre declaro sin movimiento, dentro del plazo, por que me aparece un monto a cancelar?</t>
-  </si>
-  <si>
-    <t>¿Cómo puede ser consultada la declaración de un Formulario 29 de Declaración Mensual y Pago Simultáneo realizada por otro contribuyente?</t>
-  </si>
-  <si>
-    <t>¿Quiénes no pueden acceder al beneficio de declarar y pagar el Formulario 29 el día 20 de cada mes?</t>
-  </si>
-  <si>
-    <t>Cumplo con los requisitos para postergar, pero el sistema me dice que debo ir a la unidad ¿por qué?</t>
-  </si>
-  <si>
-    <t>Al pagar el giro de postergación se me cayó la página del banco, ¿puedo volver a cancelar o debo esperar?</t>
-  </si>
-  <si>
-    <t>¿Pueden efectuarse Pagos Provisionales Mensuales (PPM) obligatorios fuera del plazo legal?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿En qué consiste la Propuesta de Formulario 29?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Si no he declarado mi Formulario 29 dentro del plazo correspondiente, tendré una propuesta?
-</t>
-  </si>
-  <si>
-    <t>¿A quiénes está dirigida la propuesta de Formulario 29?</t>
-  </si>
-  <si>
     <t>Cómo se calcula el ppm obligatorio</t>
   </si>
   <si>
-    <t>Si rectifico el F. 29 y aún estoy dentro del plazo de envío de la declaración, el sistema me aplicará multas e intereses?</t>
-  </si>
-  <si>
     <t>QUE TENGO QUE LLEVAR A LAS OFICINA PARA RECTIFICAR</t>
   </si>
   <si>
@@ -263,18 +122,9 @@
     <t>donde se pagan los ppm obligatorios</t>
   </si>
   <si>
-    <t>Puedo pagar PPM´s voluntario y donde los hago?</t>
-  </si>
-  <si>
     <t>puedo rectificar con cupon de pago</t>
   </si>
   <si>
-    <t>¿SI TENGO TERMINO DE GIRO EN TRAMITE DEBO SEGUIR DECLARANDO F29?</t>
-  </si>
-  <si>
-    <t>¿CUANTAS VECES PUEDO POSTERGAR IVA?</t>
-  </si>
-  <si>
     <t>Preguntas Frecuentes</t>
   </si>
   <si>
@@ -284,34 +134,18 @@
     <t>Si selecciono pago PEL y el sistema me arroja que seleccione pago PEC y se queda Pendiente de Anulación, que debo hacer?</t>
   </si>
   <si>
-    <t>tengo una factura por compras olvidada de declarar de hace un año. puedo recuperar ese crédito?</t>
-  </si>
-  <si>
     <t>POR QUE TENGO QUE DECLARAR</t>
   </si>
   <si>
-    <t xml:space="preserve">cual es el plazo para pagar con pago PEC .
-</t>
-  </si>
-  <si>
     <t>puedo pagar con cupon de pago el dia 20</t>
   </si>
   <si>
     <t>quiero pagar mis boletas de honorario</t>
   </si>
   <si>
-    <t>da lo mismo si me autentico al ingresar a declarar mi f29 con certificado digital o rut de la empresa?</t>
-  </si>
-  <si>
-    <t>Buenas tardes, ¿Las boletas de honorarios generadas en diferentes meses se pueden declarar juntas en un solo f29?</t>
-  </si>
-  <si>
     <t>al pagar me aparece multa y estoy dentro del plazo</t>
   </si>
   <si>
-    <t>que es un giro?</t>
-  </si>
-  <si>
     <t>información</t>
   </si>
   <si>
@@ -333,9 +167,6 @@
     <t>cómo va tu día</t>
   </si>
   <si>
-    <t>estás bien?</t>
-  </si>
-  <si>
     <t>espero que estés bien</t>
   </si>
   <si>
@@ -375,10 +206,6 @@
     <t>chau</t>
   </si>
   <si>
-    <t xml:space="preserve">me despido
-</t>
-  </si>
-  <si>
     <t>alguien que pueda ayudar</t>
   </si>
   <si>
@@ -388,67 +215,9 @@
     <t>toc toc</t>
   </si>
   <si>
-    <t>¿Cómo te llamas?</t>
-  </si>
-  <si>
-    <t>¿Dónde cancelo el cupon de pago?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Cuáles son las Instituciones Recaudadoras autorizadas para pagar por caja?
-</t>
-  </si>
-  <si>
-    <t>¿Existen convenios para pagar el IVA fuera de plazo?</t>
-  </si>
-  <si>
-    <t>¿Cómo pagar IVA fuera de plazo con convenio?</t>
-  </si>
-  <si>
-    <t>¿Cómo pactar iva fuera de plazo?</t>
-  </si>
-  <si>
-    <t>¿Existe convenio con Tesorería General de la Republica para pagar IVA fuera de plazo?</t>
-  </si>
-  <si>
-    <t>¿Como saber si tengo plazo hasta el 20 para pagar?</t>
-  </si>
-  <si>
-    <t>¿Cómo puedo saber si estoy autorizado para declarar el F29 el día 20?</t>
-  </si>
-  <si>
-    <t>¿Cómo puedo saber si cumplo los requisitos para declarar y pagar el Formulario 29 hasta el día 20 de cada mes?</t>
-  </si>
-  <si>
-    <t>Cuales son los requisitos para pagar el dia 20 el formulario 29?</t>
-  </si>
-  <si>
-    <t>¿Puedo declarar y pagar el 20?</t>
-  </si>
-  <si>
-    <t>¿Como puedo averiguar si estoy autorizado para posponer el pago del iva hasta el día 20?</t>
-  </si>
-  <si>
     <t>Requisitos para declarar y pagar el Formulario 29 el día 20 de cada mes</t>
   </si>
   <si>
-    <t xml:space="preserve">¿Quienes pueden acceder al beneficio de declarar y pagar el Formulario 29 hasta el día 20 de cada mes?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">que es un F29
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">como declaro en mi celu
-</t>
-  </si>
-  <si>
-    <t>como declaro por smart phone?</t>
-  </si>
-  <si>
-    <t>como declaro por celular?</t>
-  </si>
-  <si>
     <t>Formulario 29</t>
   </si>
   <si>
@@ -456,29 +225,250 @@
   </si>
   <si>
     <t>PREGUNTA</t>
-  </si>
-  <si>
-    <t>Existe algun convenio para pagar el IVA fuera de plazo?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuál es el significado de las letras que aparecen en la consulta integral del iva?
-</t>
   </si>
   <si>
     <t>Cuando ingreso a pagar el F.29, éste no me deja ingresar a la página del Banco, que puedo hacer
 no puedo pasar a la parte del banco para pagar el f 29</t>
   </si>
   <si>
-    <t>¿Con quién hablo?</t>
-  </si>
-  <si>
-    <t>¿Cómo te llamo?</t>
-  </si>
-  <si>
-    <t>¿Qué nombre te pusieron?</t>
-  </si>
-  <si>
-    <t>¿Cuál es tu nombre?</t>
+    <t>estás bien</t>
+  </si>
+  <si>
+    <t>como los contacto</t>
+  </si>
+  <si>
+    <t>tienen redes sociales</t>
+  </si>
+  <si>
+    <t>que es sii movil</t>
+  </si>
+  <si>
+    <t>el arriendo de una casa debe pagar impuestos</t>
+  </si>
+  <si>
+    <t>Se debe pagar IVA por la venta de un activo fijo y qué documento debiera emitir</t>
+  </si>
+  <si>
+    <t>cómo puedo ver el estado de mi declaración de IVA</t>
+  </si>
+  <si>
+    <t>Cómo se actualiza el remanente del Crédito Fiscal del mes anterior si el actual Formulario 29 de Declaración Mensual y Pago Simultáneo no considera valores en Unidades Tributarias Mensuales (UTM)</t>
+  </si>
+  <si>
+    <t>Cómo se puede obtener por Internet un certificado o una copia de la declaración de un Formulario 29 de Declaración Mensual y Pago Simultáneo</t>
+  </si>
+  <si>
+    <t>Cuáles son los medios y lugares que existen para presentar el Formulario 29 de Declaración Mensual y Pago Simultáneo</t>
+  </si>
+  <si>
+    <t>Las declaraciones del Formulario 29 de Declaración Mensual y Pago Simultáneo sin movimiento o sin pago mantienen esta misma calidad si son presentadas fuera de plazo</t>
+  </si>
+  <si>
+    <t>Cuáles son los plazos para presentar el Formulario 29 de Declaración Mensual y Pago Simultáneo</t>
+  </si>
+  <si>
+    <t>Hay que declarar, obligatoriamente, el Formulario 29 de Declaración Mensual y Pago Simultáneo aunque no se tenga movimiento</t>
+  </si>
+  <si>
+    <t>Es posible retomar el ingreso de información en un Formulario 29 de Declaración Mensual y Pago Simultáneo</t>
+  </si>
+  <si>
+    <t>Cuáles son los elementos que determinan que una venta esté afecta al Impuesto al Valor Agregado (IVA)</t>
+  </si>
+  <si>
+    <t>cómo puedo pagar un IVA por internet</t>
+  </si>
+  <si>
+    <t>Al pagar el IVA se duplicó el cargo, cómo se devuelve ese dinero</t>
+  </si>
+  <si>
+    <t>puedo pagar el iva en cuotas</t>
+  </si>
+  <si>
+    <t>Si cancelé un IVA por un monto mayor al que correspondía cómo puedo regularizarlo</t>
+  </si>
+  <si>
+    <t>Un servicio prestado en Chile a un cliente extranjero, está afecto al pago del Impuesto al Valor Agregado (IVA)</t>
+  </si>
+  <si>
+    <t>Cuáles son los servicios gravados con Impuesto al Valor Agregado (IVA)</t>
+  </si>
+  <si>
+    <t>como entro a mi cuenta</t>
+  </si>
+  <si>
+    <t>como solicito clave</t>
+  </si>
+  <si>
+    <t>Qué son las declaraciones del Formulario 29 de Declaración Mensual y Pago Simultáneo sin pago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me aparece pago rechazado y me descontaron la plata del banco </t>
+  </si>
+  <si>
+    <t>Debo informar mis facturas reclamadas o rechazadas en el F29</t>
+  </si>
+  <si>
+    <t>Puedo solicitar en la Unidad del Servicio condonación de multas e intereses</t>
+  </si>
+  <si>
+    <t>Cuales son los requisitos para postergar el pago de IVA</t>
+  </si>
+  <si>
+    <t>Cómo declarar sin movimiento</t>
+  </si>
+  <si>
+    <t>puedo postergar los ppm</t>
+  </si>
+  <si>
+    <t>Hasta qué hora del día del vencimiento se puede declarar por Internet el Formulario 29 sin movimiento</t>
+  </si>
+  <si>
+    <t>postergue el iva, cuando debo pagar</t>
+  </si>
+  <si>
+    <t>necesito cambiar la propuesta de iva del servicio como lo ´puedo modificar</t>
+  </si>
+  <si>
+    <t>que significan los intentos de declaracion</t>
+  </si>
+  <si>
+    <t>Si el vencimiento del formulario 29 es día sábado, domingo o festivo, el vencimiento se aplaza</t>
+  </si>
+  <si>
+    <t>Que es el cupon de pago</t>
+  </si>
+  <si>
+    <t>Qué es la Consulta Integral F29</t>
+  </si>
+  <si>
+    <t>Si siempre declaro sin movimiento, dentro del plazo, por que me aparece un monto a cancelar</t>
+  </si>
+  <si>
+    <t>Cómo puede ser consultada la declaración de un Formulario 29 de Declaración Mensual y Pago Simultáneo realizada por otro contribuyente</t>
+  </si>
+  <si>
+    <t>Dónde cancelo el cupon de pago</t>
+  </si>
+  <si>
+    <t>Existen convenios para pagar el IVA fuera de plazo</t>
+  </si>
+  <si>
+    <t>Cómo pagar IVA fuera de plazo con convenio</t>
+  </si>
+  <si>
+    <t>Cómo pactar iva fuera de plazo</t>
+  </si>
+  <si>
+    <t>Existe convenio con Tesorería General de la Republica para pagar IVA fuera de plazo</t>
+  </si>
+  <si>
+    <t>Existe algun convenio para pagar el IVA fuera de plazo</t>
+  </si>
+  <si>
+    <t>Como saber si tengo plazo hasta el 20 para pagar</t>
+  </si>
+  <si>
+    <t>Quiénes no pueden acceder al beneficio de declarar y pagar el Formulario 29 el día 20 de cada mes</t>
+  </si>
+  <si>
+    <t>Cómo puedo saber si estoy autorizado para declarar el F29 el día 20</t>
+  </si>
+  <si>
+    <t>Cómo puedo saber si cumplo los requisitos para declarar y pagar el Formulario 29 hasta el día 20 de cada mes</t>
+  </si>
+  <si>
+    <t>Cuales son los requisitos para pagar el dia 20 el formulario 29</t>
+  </si>
+  <si>
+    <t>Puedo declarar y pagar el 20</t>
+  </si>
+  <si>
+    <t>Como puedo averiguar si estoy autorizado para posponer el pago del iva hasta el día 20</t>
+  </si>
+  <si>
+    <t>Cumplo con los requisitos para postergar, pero el sistema me dice que debo ir a la unidad por qué</t>
+  </si>
+  <si>
+    <t>Al pagar el giro de postergación se me cayó la página del banco, puedo volver a cancelar o debo esperar</t>
+  </si>
+  <si>
+    <t>Pueden efectuarse Pagos Provisionales Mensuales (PPM) obligatorios fuera del plazo legal</t>
+  </si>
+  <si>
+    <t>A quiénes está dirigida la propuesta de Formulario 29</t>
+  </si>
+  <si>
+    <t>Si rectifico el F. 29 y aún estoy dentro del plazo de envío de la declaración, el sistema me aplicará multas e intereses</t>
+  </si>
+  <si>
+    <t>Puedo pagar PPM´s voluntario y donde los hago</t>
+  </si>
+  <si>
+    <t>SI TENGO TERMINO DE GIRO EN TRAMITE DEBO SEGUIR DECLARANDO F29</t>
+  </si>
+  <si>
+    <t>CUANTAS VECES PUEDO POSTERGAR IVA</t>
+  </si>
+  <si>
+    <t>tengo una factura por compras olvidada de declarar de hace un año. puedo recuperar ese crédito</t>
+  </si>
+  <si>
+    <t>da lo mismo si me autentico al ingresar a declarar mi f29 con certificado digital o rut de la empresa</t>
+  </si>
+  <si>
+    <t>Buenas tardes, Las boletas de honorarios generadas en diferentes meses se pueden declarar juntas en un solo f29</t>
+  </si>
+  <si>
+    <t>que es un giro</t>
+  </si>
+  <si>
+    <t>como declaro por smart phone</t>
+  </si>
+  <si>
+    <t>como declaro por celular</t>
+  </si>
+  <si>
+    <t>Cómo te llamo</t>
+  </si>
+  <si>
+    <t>Con quién hablo</t>
+  </si>
+  <si>
+    <t>Qué nombre te pusieron</t>
+  </si>
+  <si>
+    <t>Cuál es tu nombre</t>
+  </si>
+  <si>
+    <t>Cómo te llamas</t>
+  </si>
+  <si>
+    <t>me despido</t>
+  </si>
+  <si>
+    <t>Cuáles son las Instituciones Recaudadoras autorizadas para pagar por caja</t>
+  </si>
+  <si>
+    <t>Quienes pueden acceder al beneficio de declarar y pagar el Formulario 29 hasta el día 20 de cada mes</t>
+  </si>
+  <si>
+    <t>En qué consiste la Propuesta de Formulario 29</t>
+  </si>
+  <si>
+    <t>Si no he declarado mi Formulario 29 dentro del plazo correspondiente, tendré una propuesta</t>
+  </si>
+  <si>
+    <t>Cuál es el significado de las letras que aparecen en la consulta integral del iva</t>
+  </si>
+  <si>
+    <t>cual es el plazo para pagar con pago PEC .</t>
+  </si>
+  <si>
+    <t>que es un F29</t>
+  </si>
+  <si>
+    <t>como declaro en mi celu</t>
   </si>
 </sst>
 </file>
@@ -870,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -882,10 +872,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>135</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -914,7 +904,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>1</v>
@@ -922,7 +912,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>1</v>
@@ -930,7 +920,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>1</v>
@@ -938,7 +928,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>1</v>
@@ -946,7 +936,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>1</v>
@@ -954,7 +944,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>1</v>
@@ -962,7 +952,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>1</v>
@@ -970,7 +960,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>1</v>
@@ -978,7 +968,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>1</v>
@@ -986,7 +976,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>1</v>
@@ -994,7 +984,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>1</v>
@@ -1002,15 +992,15 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>1</v>
@@ -1018,7 +1008,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>2</v>
@@ -1026,7 +1016,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>2</v>
@@ -1034,7 +1024,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>2</v>
@@ -1042,7 +1032,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>2</v>
@@ -1050,7 +1040,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>2</v>
@@ -1082,7 +1072,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>0</v>
@@ -1090,7 +1080,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>0</v>
@@ -1098,7 +1088,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>0</v>
@@ -1106,7 +1096,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>0</v>
@@ -1114,7 +1104,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>0</v>
@@ -1122,7 +1112,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>0</v>
@@ -1130,7 +1120,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>0</v>
@@ -1138,7 +1128,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>0</v>
@@ -1146,7 +1136,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>0</v>
@@ -1154,7 +1144,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>0</v>
@@ -1162,7 +1152,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>0</v>
@@ -1181,839 +1171,839 @@
         <v>9</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="8" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
-        <v>66</v>
+        <v>138</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/mensajes_entrada.xlsx
+++ b/mensajes_entrada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b21cb4369e719c3/Documentos/Cathy/Magíster/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="394" documentId="8_{A80E467C-B667-40C9-8701-265CC69ECF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3776C98-A27A-4BE6-9A08-A28F9D5B28BA}"/>
+  <xr:revisionPtr revIDLastSave="397" documentId="8_{A80E467C-B667-40C9-8701-265CC69ECF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BEDE31C-3F6F-4534-91B2-B47DF28080C0}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -221,12 +221,6 @@
     <t>Formulario 29</t>
   </si>
   <si>
-    <t>CLASE</t>
-  </si>
-  <si>
-    <t>PREGUNTA</t>
-  </si>
-  <si>
     <t>Cuando ingreso a pagar el F.29, éste no me deja ingresar a la página del Banco, que puedo hacer
 no puedo pasar a la parte del banco para pagar el f 29</t>
   </si>
@@ -469,6 +463,12 @@
   </si>
   <si>
     <t>como declaro en mi celu</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>label</t>
   </si>
 </sst>
 </file>
@@ -860,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -872,103 +872,103 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
+      <c r="A2" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
+      <c r="A3" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
+      <c r="A4" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>37</v>
+    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>44</v>
+      <c r="A7" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>45</v>
+      <c r="A8" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>50</v>
+      <c r="A11" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>51</v>
+      <c r="A12" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>52</v>
+      <c r="A13" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>1</v>
@@ -976,119 +976,119 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>54</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>55</v>
+      <c r="A16" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>135</v>
+      <c r="A17" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>134</v>
+      <c r="A18" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>133</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>132</v>
+      <c r="A20" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>131</v>
+      <c r="A21" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>130</v>
+      <c r="A22" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
+      <c r="A23" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>4</v>
+      <c r="A24" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>0</v>
@@ -1096,79 +1096,79 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>64</v>
+      <c r="A30" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>43</v>
+      <c r="A31" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>46</v>
+      <c r="A32" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>56</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>57</v>
+      <c r="A35" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>58</v>
+      <c r="A36" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>6</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>36</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>36</v>
@@ -1184,23 +1184,23 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>36</v>
@@ -1208,95 +1208,95 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
-        <v>67</v>
+      <c r="A45" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
-        <v>14</v>
+      <c r="A46" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
-        <v>68</v>
+      <c r="A47" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
-        <v>69</v>
+      <c r="A48" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
-        <v>70</v>
+      <c r="A49" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
-        <v>74</v>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>36</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="56" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>36</v>
@@ -1320,55 +1320,55 @@
     </row>
     <row r="57" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
-        <v>79</v>
+      <c r="A58" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" t="s">
-        <v>80</v>
+      <c r="A60" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
-        <v>81</v>
+    <row r="61" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
-        <v>82</v>
+    <row r="62" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
-        <v>16</v>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>36</v>
@@ -1376,23 +1376,23 @@
     </row>
     <row r="64" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>36</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>36</v>
@@ -1408,7 +1408,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>36</v>
@@ -1416,15 +1416,15 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>36</v>
@@ -1432,7 +1432,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>36</v>
@@ -1440,7 +1440,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>36</v>
@@ -1448,47 +1448,47 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="6" t="s">
-        <v>19</v>
+      <c r="A75" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="s">
-        <v>92</v>
+      <c r="A76" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="6" t="s">
-        <v>94</v>
+      <c r="A78" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>36</v>
@@ -1496,15 +1496,15 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="6" t="s">
-        <v>96</v>
+      <c r="A80" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>36</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>36</v>
@@ -1520,71 +1520,71 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="6" t="s">
-        <v>21</v>
+      <c r="A83" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="6" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="6" t="s">
-        <v>23</v>
+      <c r="A86" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="6" t="s">
-        <v>100</v>
+      <c r="A88" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A89" s="6" t="s">
-        <v>101</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>36</v>
@@ -1592,23 +1592,23 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="6" t="s">
-        <v>136</v>
+      <c r="A92" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>36</v>
@@ -1616,7 +1616,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>36</v>
@@ -1624,15 +1624,15 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A96" s="8" t="s">
-        <v>107</v>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>36</v>
@@ -1640,7 +1640,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>36</v>
@@ -1648,29 +1648,29 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="6" t="s">
-        <v>110</v>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>112</v>
       </c>
@@ -1680,23 +1680,23 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>113</v>
+        <v>33</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="6" t="s">
-        <v>114</v>
+      <c r="A103" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>36</v>
@@ -1704,55 +1704,55 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A108" s="6" t="s">
-        <v>117</v>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="6" t="s">
-        <v>138</v>
+      <c r="A110" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>36</v>
@@ -1760,15 +1760,15 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A113" s="6" t="s">
-        <v>71</v>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>36</v>
@@ -1776,103 +1776,103 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="6" t="s">
-        <v>25</v>
+      <c r="A116" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="6" t="s">
-        <v>121</v>
+      <c r="A119" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="6" t="s">
-        <v>19</v>
+      <c r="A120" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="6" t="s">
-        <v>28</v>
+      <c r="A121" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="6" t="s">
-        <v>122</v>
+      <c r="A122" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>36</v>
@@ -1880,55 +1880,55 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>140</v>
+        <v>34</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="B128" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="6" t="s">
-        <v>32</v>
+      <c r="A129" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="B129" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="6" t="s">
-        <v>141</v>
+    <row r="130" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A130" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="B130" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="B131" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="B132" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="B133" s="7" t="s">
         <v>36</v>
@@ -1936,7 +1936,7 @@
     </row>
     <row r="134" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>36</v>
@@ -1944,7 +1944,7 @@
     </row>
     <row r="135" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="B135" s="7" t="s">
         <v>36</v>
@@ -1952,7 +1952,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="B136" s="7" t="s">
         <v>36</v>
@@ -1960,15 +1960,15 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="B137" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B138" s="7" t="s">
         <v>36</v>
@@ -1976,38 +1976,42 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="B139" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="7" t="s">
-        <v>128</v>
+      <c r="A140" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="B140" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="7" t="s">
-        <v>129</v>
+      <c r="A141" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="7" t="s">
-        <v>60</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A142" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="B142" s="7" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B142" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:B142" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B142">
+      <sortCondition ref="A2:A142"/>
+    </sortState>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B37">
     <sortCondition ref="B2:B37"/>
   </sortState>
